--- a/AAPL_supertrend.xlsx
+++ b/AAPL_supertrend.xlsx
@@ -501,7 +501,7 @@
         <v>45056</v>
       </c>
       <c r="B2" t="n">
-        <v>171.8271636962891</v>
+        <v>171.8271789550781</v>
       </c>
       <c r="C2" t="n">
         <v>173.5599975585938</v>
@@ -559,7 +559,7 @@
         <v>45058</v>
       </c>
       <c r="B4" t="n">
-        <v>171.0833587646484</v>
+        <v>171.0833740234375</v>
       </c>
       <c r="C4" t="n">
         <v>172.5700073242188</v>
@@ -646,7 +646,7 @@
         <v>45063</v>
       </c>
       <c r="B7" t="n">
-        <v>171.2023315429688</v>
+        <v>171.2023468017578</v>
       </c>
       <c r="C7" t="n">
         <v>172.6900024414062</v>
@@ -675,7 +675,7 @@
         <v>45064</v>
       </c>
       <c r="B8" t="n">
-        <v>173.5419921875</v>
+        <v>173.5420227050781</v>
       </c>
       <c r="C8" t="n">
         <v>175.0500030517578</v>
@@ -704,7 +704,7 @@
         <v>45065</v>
       </c>
       <c r="B9" t="n">
-        <v>173.6510620117188</v>
+        <v>173.6510467529297</v>
       </c>
       <c r="C9" t="n">
         <v>175.1600036621094</v>
@@ -737,7 +737,7 @@
         <v>45068</v>
       </c>
       <c r="B10" t="n">
-        <v>172.6993103027344</v>
+        <v>172.6993255615234</v>
       </c>
       <c r="C10" t="n">
         <v>174.1999969482422</v>
@@ -770,7 +770,7 @@
         <v>45069</v>
       </c>
       <c r="B11" t="n">
-        <v>170.0820770263672</v>
+        <v>170.0820617675781</v>
       </c>
       <c r="C11" t="n">
         <v>171.5599975585938</v>
@@ -803,7 +803,7 @@
         <v>45070</v>
       </c>
       <c r="B12" t="n">
-        <v>170.3596649169922</v>
+        <v>170.3596496582031</v>
       </c>
       <c r="C12" t="n">
         <v>171.8399963378906</v>
@@ -902,7 +902,7 @@
         <v>45076</v>
       </c>
       <c r="B15" t="n">
-        <v>175.7726135253906</v>
+        <v>175.7725982666016</v>
       </c>
       <c r="C15" t="n">
         <v>177.3000030517578</v>
@@ -968,7 +968,7 @@
         <v>45078</v>
       </c>
       <c r="B17" t="n">
-        <v>178.5385894775391</v>
+        <v>178.53857421875</v>
       </c>
       <c r="C17" t="n">
         <v>180.0899963378906</v>
@@ -1001,7 +1001,7 @@
         <v>45079</v>
       </c>
       <c r="B18" t="n">
-        <v>179.3911590576172</v>
+        <v>179.3911743164062</v>
       </c>
       <c r="C18" t="n">
         <v>180.9499969482422</v>
@@ -1133,7 +1133,7 @@
         <v>45085</v>
       </c>
       <c r="B22" t="n">
-        <v>179.0144653320312</v>
+        <v>179.0144348144531</v>
       </c>
       <c r="C22" t="n">
         <v>180.5700073242188</v>
@@ -1265,7 +1265,7 @@
         <v>45091</v>
       </c>
       <c r="B26" t="n">
-        <v>182.3653259277344</v>
+        <v>182.3653106689453</v>
       </c>
       <c r="C26" t="n">
         <v>183.9499969482422</v>
@@ -1496,7 +1496,7 @@
         <v>45103</v>
       </c>
       <c r="B33" t="n">
-        <v>183.6739807128906</v>
+        <v>183.6739654541016</v>
       </c>
       <c r="C33" t="n">
         <v>185.2700042724609</v>
@@ -1529,7 +1529,7 @@
         <v>45104</v>
       </c>
       <c r="B34" t="n">
-        <v>186.4399261474609</v>
+        <v>186.4399108886719</v>
       </c>
       <c r="C34" t="n">
         <v>188.0599975585938</v>
@@ -1628,7 +1628,7 @@
         <v>45107</v>
       </c>
       <c r="B37" t="n">
-        <v>192.2990112304688</v>
+        <v>192.2990264892578</v>
       </c>
       <c r="C37" t="n">
         <v>193.9700012207031</v>
@@ -1694,7 +1694,7 @@
         <v>45112</v>
       </c>
       <c r="B39" t="n">
-        <v>189.6817474365234</v>
+        <v>189.6817626953125</v>
       </c>
       <c r="C39" t="n">
         <v>191.3300018310547</v>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="B40" t="n">
-        <v>190.1576232910156</v>
+        <v>190.1576080322266</v>
       </c>
       <c r="C40" t="n">
         <v>191.8099975585938</v>
@@ -1892,7 +1892,7 @@
         <v>45120</v>
       </c>
       <c r="B45" t="n">
-        <v>188.8985290527344</v>
+        <v>188.8985595703125</v>
       </c>
       <c r="C45" t="n">
         <v>190.5399932861328</v>
@@ -1925,7 +1925,7 @@
         <v>45121</v>
       </c>
       <c r="B46" t="n">
-        <v>189.0472717285156</v>
+        <v>189.0472564697266</v>
       </c>
       <c r="C46" t="n">
         <v>190.6900024414062</v>
@@ -2057,7 +2057,7 @@
         <v>45127</v>
       </c>
       <c r="B50" t="n">
-        <v>191.4662475585938</v>
+        <v>191.4662628173828</v>
       </c>
       <c r="C50" t="n">
         <v>193.1300048828125</v>
@@ -2090,7 +2090,7 @@
         <v>45128</v>
       </c>
       <c r="B51" t="n">
-        <v>190.2864990234375</v>
+        <v>190.2865142822266</v>
       </c>
       <c r="C51" t="n">
         <v>191.9400024414062</v>
@@ -2123,7 +2123,7 @@
         <v>45131</v>
       </c>
       <c r="B52" t="n">
-        <v>191.0895080566406</v>
+        <v>191.0895233154297</v>
       </c>
       <c r="C52" t="n">
         <v>192.75</v>
@@ -2222,7 +2222,7 @@
         <v>45134</v>
       </c>
       <c r="B55" t="n">
-        <v>191.5554809570312</v>
+        <v>191.5554504394531</v>
       </c>
       <c r="C55" t="n">
         <v>193.2200012207031</v>
@@ -2321,7 +2321,7 @@
         <v>45139</v>
       </c>
       <c r="B58" t="n">
-        <v>193.9248504638672</v>
+        <v>193.9248657226562</v>
       </c>
       <c r="C58" t="n">
         <v>195.6100006103516</v>
@@ -2420,7 +2420,7 @@
         <v>45142</v>
       </c>
       <c r="B61" t="n">
-        <v>180.4222106933594</v>
+        <v>180.4222412109375</v>
       </c>
       <c r="C61" t="n">
         <v>181.9900054931641</v>
@@ -2453,7 +2453,7 @@
         <v>45145</v>
       </c>
       <c r="B62" t="n">
-        <v>177.3092803955078</v>
+        <v>177.3092651367188</v>
       </c>
       <c r="C62" t="n">
         <v>178.8500061035156</v>
@@ -2486,7 +2486,7 @@
         <v>45146</v>
       </c>
       <c r="B63" t="n">
-        <v>178.2510986328125</v>
+        <v>178.2510681152344</v>
       </c>
       <c r="C63" t="n">
         <v>179.8000030517578</v>
@@ -2519,7 +2519,7 @@
         <v>45147</v>
       </c>
       <c r="B64" t="n">
-        <v>176.6549682617188</v>
+        <v>176.6549377441406</v>
       </c>
       <c r="C64" t="n">
         <v>178.1900024414062</v>
@@ -2552,7 +2552,7 @@
         <v>45148</v>
       </c>
       <c r="B65" t="n">
-        <v>176.4368438720703</v>
+        <v>176.4368591308594</v>
       </c>
       <c r="C65" t="n">
         <v>177.9700012207031</v>
@@ -2585,7 +2585,7 @@
         <v>45149</v>
       </c>
       <c r="B66" t="n">
-        <v>176.4963989257812</v>
+        <v>176.4964141845703</v>
       </c>
       <c r="C66" t="n">
         <v>177.7899932861328</v>
@@ -2618,7 +2618,7 @@
         <v>45152</v>
       </c>
       <c r="B67" t="n">
-        <v>178.1542663574219</v>
+        <v>178.1542816162109</v>
       </c>
       <c r="C67" t="n">
         <v>179.4600067138672</v>
@@ -2651,7 +2651,7 @@
         <v>45153</v>
       </c>
       <c r="B68" t="n">
-        <v>176.1588592529297</v>
+        <v>176.1588897705078</v>
       </c>
       <c r="C68" t="n">
         <v>177.4499969482422</v>
@@ -2717,7 +2717,7 @@
         <v>45155</v>
       </c>
       <c r="B70" t="n">
-        <v>172.7339935302734</v>
+        <v>172.7339782714844</v>
       </c>
       <c r="C70" t="n">
         <v>174</v>
@@ -2816,7 +2816,7 @@
         <v>45160</v>
       </c>
       <c r="B73" t="n">
-        <v>175.9404754638672</v>
+        <v>175.9404907226562</v>
       </c>
       <c r="C73" t="n">
         <v>177.2299957275391</v>
@@ -2882,7 +2882,7 @@
         <v>45162</v>
       </c>
       <c r="B75" t="n">
-        <v>175.0966796875</v>
+        <v>175.0966949462891</v>
       </c>
       <c r="C75" t="n">
         <v>176.3800048828125</v>
@@ -2915,7 +2915,7 @@
         <v>45163</v>
       </c>
       <c r="B76" t="n">
-        <v>177.3104705810547</v>
+        <v>177.3104553222656</v>
       </c>
       <c r="C76" t="n">
         <v>178.6100006103516</v>
@@ -2948,7 +2948,7 @@
         <v>45166</v>
       </c>
       <c r="B77" t="n">
-        <v>178.8789520263672</v>
+        <v>178.8789672851562</v>
       </c>
       <c r="C77" t="n">
         <v>180.1900024414062</v>
@@ -2981,7 +2981,7 @@
         <v>45167</v>
       </c>
       <c r="B78" t="n">
-        <v>182.7803649902344</v>
+        <v>182.7803344726562</v>
       </c>
       <c r="C78" t="n">
         <v>184.1199951171875</v>
@@ -3014,7 +3014,7 @@
         <v>45168</v>
       </c>
       <c r="B79" t="n">
-        <v>186.2846527099609</v>
+        <v>186.28466796875</v>
       </c>
       <c r="C79" t="n">
         <v>187.6499938964844</v>
@@ -3080,7 +3080,7 @@
         <v>45170</v>
       </c>
       <c r="B81" t="n">
-        <v>188.0814971923828</v>
+        <v>188.0815277099609</v>
       </c>
       <c r="C81" t="n">
         <v>189.4600067138672</v>
@@ -3113,7 +3113,7 @@
         <v>45174</v>
       </c>
       <c r="B82" t="n">
-        <v>188.3197326660156</v>
+        <v>188.3197631835938</v>
       </c>
       <c r="C82" t="n">
         <v>189.6999969482422</v>
@@ -3146,7 +3146,7 @@
         <v>45175</v>
       </c>
       <c r="B83" t="n">
-        <v>181.5791473388672</v>
+        <v>181.5791625976562</v>
       </c>
       <c r="C83" t="n">
         <v>182.9100036621094</v>
@@ -3179,7 +3179,7 @@
         <v>45176</v>
       </c>
       <c r="B84" t="n">
-        <v>176.2680969238281</v>
+        <v>176.2680816650391</v>
       </c>
       <c r="C84" t="n">
         <v>177.5599975585938</v>
@@ -3245,7 +3245,7 @@
         <v>45180</v>
       </c>
       <c r="B86" t="n">
-        <v>178.0549926757812</v>
+        <v>178.0549774169922</v>
       </c>
       <c r="C86" t="n">
         <v>179.3600006103516</v>
@@ -3443,7 +3443,7 @@
         <v>45188</v>
       </c>
       <c r="B92" t="n">
-        <v>177.7671203613281</v>
+        <v>177.7671051025391</v>
       </c>
       <c r="C92" t="n">
         <v>179.0700073242188</v>
@@ -3509,7 +3509,7 @@
         <v>45190</v>
       </c>
       <c r="B94" t="n">
-        <v>172.6644897460938</v>
+        <v>172.6644744873047</v>
       </c>
       <c r="C94" t="n">
         <v>173.9299926757812</v>
@@ -3542,7 +3542,7 @@
         <v>45191</v>
       </c>
       <c r="B95" t="n">
-        <v>173.5182342529297</v>
+        <v>173.5182495117188</v>
       </c>
       <c r="C95" t="n">
         <v>174.7899932861328</v>
@@ -3575,7 +3575,7 @@
         <v>45194</v>
       </c>
       <c r="B96" t="n">
-        <v>174.7988586425781</v>
+        <v>174.7988433837891</v>
       </c>
       <c r="C96" t="n">
         <v>176.0800018310547</v>
@@ -3608,7 +3608,7 @@
         <v>45195</v>
       </c>
       <c r="B97" t="n">
-        <v>170.7088470458984</v>
+        <v>170.7088317871094</v>
       </c>
       <c r="C97" t="n">
         <v>171.9600067138672</v>
@@ -3740,7 +3740,7 @@
         <v>45201</v>
       </c>
       <c r="B101" t="n">
-        <v>172.4858245849609</v>
+        <v>172.4857940673828</v>
       </c>
       <c r="C101" t="n">
         <v>173.75</v>
@@ -3839,7 +3839,7 @@
         <v>45204</v>
       </c>
       <c r="B104" t="n">
-        <v>173.6373596191406</v>
+        <v>173.6373748779297</v>
       </c>
       <c r="C104" t="n">
         <v>174.9100036621094</v>
@@ -3872,7 +3872,7 @@
         <v>45205</v>
       </c>
       <c r="B105" t="n">
-        <v>176.1986083984375</v>
+        <v>176.1985931396484</v>
       </c>
       <c r="C105" t="n">
         <v>177.4900054931641</v>
@@ -3971,7 +3971,7 @@
         <v>45210</v>
       </c>
       <c r="B108" t="n">
-        <v>178.4917907714844</v>
+        <v>178.4917755126953</v>
       </c>
       <c r="C108" t="n">
         <v>179.8000030517578</v>
@@ -4004,7 +4004,7 @@
         <v>45211</v>
       </c>
       <c r="B109" t="n">
-        <v>179.3951873779297</v>
+        <v>179.3951721191406</v>
       </c>
       <c r="C109" t="n">
         <v>180.7100067138672</v>
@@ -4070,7 +4070,7 @@
         <v>45215</v>
       </c>
       <c r="B111" t="n">
-        <v>177.4196624755859</v>
+        <v>177.4196319580078</v>
       </c>
       <c r="C111" t="n">
         <v>178.7200012207031</v>
@@ -4103,7 +4103,7 @@
         <v>45216</v>
       </c>
       <c r="B112" t="n">
-        <v>175.8610534667969</v>
+        <v>175.8610687255859</v>
       </c>
       <c r="C112" t="n">
         <v>177.1499938964844</v>
@@ -4169,7 +4169,7 @@
         <v>45218</v>
       </c>
       <c r="B114" t="n">
-        <v>174.1833953857422</v>
+        <v>174.1833801269531</v>
       </c>
       <c r="C114" t="n">
         <v>175.4600067138672</v>
@@ -4235,7 +4235,7 @@
         <v>45222</v>
       </c>
       <c r="B116" t="n">
-        <v>171.7412567138672</v>
+        <v>171.7412719726562</v>
       </c>
       <c r="C116" t="n">
         <v>173</v>
@@ -4334,7 +4334,7 @@
         <v>45225</v>
       </c>
       <c r="B119" t="n">
-        <v>165.6757354736328</v>
+        <v>165.6757049560547</v>
       </c>
       <c r="C119" t="n">
         <v>166.8899993896484</v>
@@ -4400,7 +4400,7 @@
         <v>45229</v>
       </c>
       <c r="B121" t="n">
-        <v>169.0509643554688</v>
+        <v>169.0509490966797</v>
       </c>
       <c r="C121" t="n">
         <v>170.2899932861328</v>
@@ -4433,7 +4433,7 @@
         <v>45230</v>
       </c>
       <c r="B122" t="n">
-        <v>169.5274963378906</v>
+        <v>169.5274810791016</v>
       </c>
       <c r="C122" t="n">
         <v>170.7700042724609</v>
@@ -4466,7 +4466,7 @@
         <v>45231</v>
       </c>
       <c r="B123" t="n">
-        <v>172.7042083740234</v>
+        <v>172.7041931152344</v>
       </c>
       <c r="C123" t="n">
         <v>173.9700012207031</v>
@@ -4499,7 +4499,7 @@
         <v>45232</v>
       </c>
       <c r="B124" t="n">
-        <v>176.2780151367188</v>
+        <v>176.2779998779297</v>
       </c>
       <c r="C124" t="n">
         <v>177.5700073242188</v>
@@ -4565,7 +4565,7 @@
         <v>45236</v>
       </c>
       <c r="B126" t="n">
-        <v>177.9259338378906</v>
+        <v>177.9259490966797</v>
       </c>
       <c r="C126" t="n">
         <v>179.2299957275391</v>
@@ -4631,7 +4631,7 @@
         <v>45238</v>
       </c>
       <c r="B128" t="n">
-        <v>181.559326171875</v>
+        <v>181.5592956542969</v>
       </c>
       <c r="C128" t="n">
         <v>182.8899993896484</v>
@@ -4664,7 +4664,7 @@
         <v>45239</v>
       </c>
       <c r="B129" t="n">
-        <v>181.0827941894531</v>
+        <v>181.0828247070312</v>
       </c>
       <c r="C129" t="n">
         <v>182.4100036621094</v>
@@ -4730,7 +4730,7 @@
         <v>45243</v>
       </c>
       <c r="B131" t="n">
-        <v>183.6970977783203</v>
+        <v>183.6970825195312</v>
       </c>
       <c r="C131" t="n">
         <v>184.8000030517578</v>
@@ -4763,7 +4763,7 @@
         <v>45244</v>
       </c>
       <c r="B132" t="n">
-        <v>186.3213500976562</v>
+        <v>186.3213348388672</v>
       </c>
       <c r="C132" t="n">
         <v>187.4400024414062</v>
@@ -4862,7 +4862,7 @@
         <v>45247</v>
       </c>
       <c r="B135" t="n">
-        <v>188.5579223632812</v>
+        <v>188.5579376220703</v>
       </c>
       <c r="C135" t="n">
         <v>189.6900024414062</v>
@@ -5027,7 +5027,7 @@
         <v>45257</v>
       </c>
       <c r="B140" t="n">
-        <v>188.6573181152344</v>
+        <v>188.6573028564453</v>
       </c>
       <c r="C140" t="n">
         <v>189.7899932861328</v>
@@ -5093,7 +5093,7 @@
         <v>45259</v>
       </c>
       <c r="B142" t="n">
-        <v>188.2398223876953</v>
+        <v>188.2398376464844</v>
       </c>
       <c r="C142" t="n">
         <v>189.3699951171875</v>
@@ -5126,7 +5126,7 @@
         <v>45260</v>
       </c>
       <c r="B143" t="n">
-        <v>188.8163452148438</v>
+        <v>188.8163604736328</v>
       </c>
       <c r="C143" t="n">
         <v>189.9499969482422</v>
@@ -5159,7 +5159,7 @@
         <v>45261</v>
       </c>
       <c r="B144" t="n">
-        <v>190.0986785888672</v>
+        <v>190.0986633300781</v>
       </c>
       <c r="C144" t="n">
         <v>191.2400054931641</v>
@@ -5192,7 +5192,7 @@
         <v>45264</v>
       </c>
       <c r="B145" t="n">
-        <v>188.2994689941406</v>
+        <v>188.2994384765625</v>
       </c>
       <c r="C145" t="n">
         <v>189.4299926757812</v>
@@ -5258,7 +5258,7 @@
         <v>45266</v>
       </c>
       <c r="B147" t="n">
-        <v>191.1722106933594</v>
+        <v>191.1722259521484</v>
       </c>
       <c r="C147" t="n">
         <v>192.3200073242188</v>
@@ -5324,7 +5324,7 @@
         <v>45268</v>
       </c>
       <c r="B149" t="n">
-        <v>194.5419769287109</v>
+        <v>194.5420074462891</v>
       </c>
       <c r="C149" t="n">
         <v>195.7100067138672</v>
@@ -5357,7 +5357,7 @@
         <v>45271</v>
       </c>
       <c r="B150" t="n">
-        <v>192.027099609375</v>
+        <v>192.0270843505859</v>
       </c>
       <c r="C150" t="n">
         <v>193.1799926757812</v>
@@ -5390,7 +5390,7 @@
         <v>45272</v>
       </c>
       <c r="B151" t="n">
-        <v>193.5479583740234</v>
+        <v>193.5479736328125</v>
       </c>
       <c r="C151" t="n">
         <v>194.7100067138672</v>
@@ -5423,7 +5423,7 @@
         <v>45273</v>
       </c>
       <c r="B152" t="n">
-        <v>196.778564453125</v>
+        <v>196.7785797119141</v>
       </c>
       <c r="C152" t="n">
         <v>197.9600067138672</v>
@@ -5522,7 +5522,7 @@
         <v>45278</v>
       </c>
       <c r="B155" t="n">
-        <v>194.7209014892578</v>
+        <v>194.7209167480469</v>
       </c>
       <c r="C155" t="n">
         <v>195.8899993896484</v>
@@ -5555,7 +5555,7 @@
         <v>45279</v>
       </c>
       <c r="B156" t="n">
-        <v>195.7646484375</v>
+        <v>195.7646636962891</v>
       </c>
       <c r="C156" t="n">
         <v>196.9400024414062</v>
@@ -5588,7 +5588,7 @@
         <v>45280</v>
       </c>
       <c r="B157" t="n">
-        <v>193.667236328125</v>
+        <v>193.6672515869141</v>
       </c>
       <c r="C157" t="n">
         <v>194.8300018310547</v>
@@ -5687,7 +5687,7 @@
         <v>45286</v>
       </c>
       <c r="B160" t="n">
-        <v>191.8978729248047</v>
+        <v>191.8978576660156</v>
       </c>
       <c r="C160" t="n">
         <v>193.0500030517578</v>
@@ -5720,7 +5720,7 @@
         <v>45287</v>
       </c>
       <c r="B161" t="n">
-        <v>191.9972686767578</v>
+        <v>191.9972534179688</v>
       </c>
       <c r="C161" t="n">
         <v>193.1499938964844</v>
@@ -5753,7 +5753,7 @@
         <v>45288</v>
       </c>
       <c r="B162" t="n">
-        <v>192.4247131347656</v>
+        <v>192.4246978759766</v>
       </c>
       <c r="C162" t="n">
         <v>193.5800018310547</v>
@@ -5885,7 +5885,7 @@
         <v>45295</v>
       </c>
       <c r="B166" t="n">
-        <v>180.8243408203125</v>
+        <v>180.8243560791016</v>
       </c>
       <c r="C166" t="n">
         <v>181.9100036621094</v>
@@ -5984,7 +5984,7 @@
         <v>45300</v>
       </c>
       <c r="B169" t="n">
-        <v>184.0350646972656</v>
+        <v>184.0350799560547</v>
       </c>
       <c r="C169" t="n">
         <v>185.1399993896484</v>
@@ -6050,7 +6050,7 @@
         <v>45302</v>
       </c>
       <c r="B171" t="n">
-        <v>184.4823608398438</v>
+        <v>184.4823913574219</v>
       </c>
       <c r="C171" t="n">
         <v>185.5899963378906</v>
@@ -6083,7 +6083,7 @@
         <v>45303</v>
       </c>
       <c r="B172" t="n">
-        <v>184.8103942871094</v>
+        <v>184.8104248046875</v>
       </c>
       <c r="C172" t="n">
         <v>185.9199981689453</v>
@@ -6116,7 +6116,7 @@
         <v>45307</v>
       </c>
       <c r="B173" t="n">
-        <v>182.5340881347656</v>
+        <v>182.5340728759766</v>
       </c>
       <c r="C173" t="n">
         <v>183.6300048828125</v>
@@ -6149,7 +6149,7 @@
         <v>45308</v>
       </c>
       <c r="B174" t="n">
-        <v>181.5897521972656</v>
+        <v>181.5897369384766</v>
       </c>
       <c r="C174" t="n">
         <v>182.6799926757812</v>
@@ -6248,7 +6248,7 @@
         <v>45313</v>
       </c>
       <c r="B177" t="n">
-        <v>192.7328491210938</v>
+        <v>192.7328338623047</v>
       </c>
       <c r="C177" t="n">
         <v>193.8899993896484</v>
@@ -6281,7 +6281,7 @@
         <v>45314</v>
       </c>
       <c r="B178" t="n">
-        <v>194.01513671875</v>
+        <v>194.0151519775391</v>
       </c>
       <c r="C178" t="n">
         <v>195.1799926757812</v>
@@ -6347,7 +6347,7 @@
         <v>45316</v>
       </c>
       <c r="B180" t="n">
-        <v>193.0111694335938</v>
+        <v>193.0111846923828</v>
       </c>
       <c r="C180" t="n">
         <v>194.1699981689453</v>
@@ -6380,7 +6380,7 @@
         <v>45317</v>
       </c>
       <c r="B181" t="n">
-        <v>191.2716064453125</v>
+        <v>191.2716369628906</v>
       </c>
       <c r="C181" t="n">
         <v>192.4199981689453</v>
@@ -6413,7 +6413,7 @@
         <v>45320</v>
       </c>
       <c r="B182" t="n">
-        <v>190.5857543945312</v>
+        <v>190.5857238769531</v>
       </c>
       <c r="C182" t="n">
         <v>191.7299957275391</v>
@@ -6479,7 +6479,7 @@
         <v>45322</v>
       </c>
       <c r="B184" t="n">
-        <v>183.2994689941406</v>
+        <v>183.2994842529297</v>
       </c>
       <c r="C184" t="n">
         <v>184.3999938964844</v>
@@ -6512,7 +6512,7 @@
         <v>45323</v>
       </c>
       <c r="B185" t="n">
-        <v>185.7448120117188</v>
+        <v>185.7448272705078</v>
       </c>
       <c r="C185" t="n">
         <v>186.8600006103516</v>
@@ -6545,7 +6545,7 @@
         <v>45324</v>
       </c>
       <c r="B186" t="n">
-        <v>184.7408294677734</v>
+        <v>184.7408447265625</v>
       </c>
       <c r="C186" t="n">
         <v>185.8500061035156</v>
@@ -6644,7 +6644,7 @@
         <v>45329</v>
       </c>
       <c r="B189" t="n">
-        <v>188.2795867919922</v>
+        <v>188.2796020507812</v>
       </c>
       <c r="C189" t="n">
         <v>189.4100036621094</v>
@@ -6677,7 +6677,7 @@
         <v>45330</v>
       </c>
       <c r="B190" t="n">
-        <v>187.1961212158203</v>
+        <v>187.1961059570312</v>
       </c>
       <c r="C190" t="n">
         <v>188.3200073242188</v>
@@ -6710,7 +6710,7 @@
         <v>45331</v>
       </c>
       <c r="B191" t="n">
-        <v>187.9624786376953</v>
+        <v>187.9624938964844</v>
       </c>
       <c r="C191" t="n">
         <v>188.8500061035156</v>
@@ -6743,7 +6743,7 @@
         <v>45334</v>
       </c>
       <c r="B192" t="n">
-        <v>186.2704467773438</v>
+        <v>186.2704620361328</v>
       </c>
       <c r="C192" t="n">
         <v>187.1499938964844</v>
@@ -6809,7 +6809,7 @@
         <v>45336</v>
       </c>
       <c r="B194" t="n">
-        <v>183.2845458984375</v>
+        <v>183.2845611572266</v>
       </c>
       <c r="C194" t="n">
         <v>184.1499938964844</v>
@@ -6875,7 +6875,7 @@
         <v>45338</v>
       </c>
       <c r="B196" t="n">
-        <v>181.4532012939453</v>
+        <v>181.4531860351562</v>
       </c>
       <c r="C196" t="n">
         <v>182.3099975585938</v>
@@ -6908,7 +6908,7 @@
         <v>45342</v>
       </c>
       <c r="B197" t="n">
-        <v>180.7067108154297</v>
+        <v>180.7067260742188</v>
       </c>
       <c r="C197" t="n">
         <v>181.5599975585938</v>
@@ -6941,7 +6941,7 @@
         <v>45343</v>
       </c>
       <c r="B198" t="n">
-        <v>181.4631805419922</v>
+        <v>181.4631652832031</v>
       </c>
       <c r="C198" t="n">
         <v>182.3200073242188</v>
@@ -7007,7 +7007,7 @@
         <v>45345</v>
       </c>
       <c r="B200" t="n">
-        <v>181.6622161865234</v>
+        <v>181.6622314453125</v>
       </c>
       <c r="C200" t="n">
         <v>182.5200042724609</v>
@@ -7106,7 +7106,7 @@
         <v>45350</v>
       </c>
       <c r="B203" t="n">
-        <v>180.5673980712891</v>
+        <v>180.5673828125</v>
       </c>
       <c r="C203" t="n">
         <v>181.4199981689453</v>
@@ -7139,7 +7139,7 @@
         <v>45351</v>
       </c>
       <c r="B204" t="n">
-        <v>179.9005432128906</v>
+        <v>179.9005279541016</v>
       </c>
       <c r="C204" t="n">
         <v>180.75</v>
@@ -7172,7 +7172,7 @@
         <v>45352</v>
       </c>
       <c r="B205" t="n">
-        <v>178.8156585693359</v>
+        <v>178.815673828125</v>
       </c>
       <c r="C205" t="n">
         <v>179.6600036621094</v>
@@ -7205,7 +7205,7 @@
         <v>45355</v>
       </c>
       <c r="B206" t="n">
-        <v>174.2770843505859</v>
+        <v>174.277099609375</v>
       </c>
       <c r="C206" t="n">
         <v>175.1000061035156</v>
@@ -7238,7 +7238,7 @@
         <v>45356</v>
       </c>
       <c r="B207" t="n">
-        <v>169.3204803466797</v>
+        <v>169.3204956054688</v>
       </c>
       <c r="C207" t="n">
         <v>170.1199951171875</v>
@@ -7469,7 +7469,7 @@
         <v>45365</v>
       </c>
       <c r="B214" t="n">
-        <v>172.1869506835938</v>
+        <v>172.1869659423828</v>
       </c>
       <c r="C214" t="n">
         <v>173</v>
@@ -7502,7 +7502,7 @@
         <v>45366</v>
       </c>
       <c r="B215" t="n">
-        <v>171.8087310791016</v>
+        <v>171.8087463378906</v>
       </c>
       <c r="C215" t="n">
         <v>172.6199951171875</v>
@@ -7568,7 +7568,7 @@
         <v>45370</v>
       </c>
       <c r="B217" t="n">
-        <v>175.2524871826172</v>
+        <v>175.2524719238281</v>
       </c>
       <c r="C217" t="n">
         <v>176.0800018310547</v>
@@ -7766,7 +7766,7 @@
         <v>45378</v>
       </c>
       <c r="B223" t="n">
-        <v>172.4955139160156</v>
+        <v>172.4954986572266</v>
       </c>
       <c r="C223" t="n">
         <v>173.3099975585938</v>
@@ -7799,7 +7799,7 @@
         <v>45379</v>
       </c>
       <c r="B224" t="n">
-        <v>170.6740875244141</v>
+        <v>170.6741027832031</v>
       </c>
       <c r="C224" t="n">
         <v>171.4799957275391</v>
@@ -7865,7 +7865,7 @@
         <v>45384</v>
       </c>
       <c r="B226" t="n">
-        <v>168.0465087890625</v>
+        <v>168.0464935302734</v>
       </c>
       <c r="C226" t="n">
         <v>168.8399963378906</v>
@@ -7931,7 +7931,7 @@
         <v>45386</v>
       </c>
       <c r="B228" t="n">
-        <v>168.0266265869141</v>
+        <v>168.026611328125</v>
       </c>
       <c r="C228" t="n">
         <v>168.8200073242188</v>
@@ -7964,7 +7964,7 @@
         <v>45387</v>
       </c>
       <c r="B229" t="n">
-        <v>168.7830200195312</v>
+        <v>168.7830352783203</v>
       </c>
       <c r="C229" t="n">
         <v>169.5800018310547</v>
@@ -8063,7 +8063,7 @@
         <v>45392</v>
       </c>
       <c r="B232" t="n">
-        <v>166.9914855957031</v>
+        <v>166.9914703369141</v>
       </c>
       <c r="C232" t="n">
         <v>167.7799987792969</v>
@@ -8096,7 +8096,7 @@
         <v>45393</v>
       </c>
       <c r="B233" t="n">
-        <v>174.2173767089844</v>
+        <v>174.2173614501953</v>
       </c>
       <c r="C233" t="n">
         <v>175.0399932861328</v>
@@ -8261,7 +8261,7 @@
         <v>45400</v>
       </c>
       <c r="B238" t="n">
-        <v>166.2549438476562</v>
+        <v>166.2549743652344</v>
       </c>
       <c r="C238" t="n">
         <v>167.0399932861328</v>
@@ -8294,7 +8294,7 @@
         <v>45401</v>
       </c>
       <c r="B239" t="n">
-        <v>164.2245635986328</v>
+        <v>164.2245483398438</v>
       </c>
       <c r="C239" t="n">
         <v>165</v>
@@ -8360,7 +8360,7 @@
         <v>45405</v>
       </c>
       <c r="B241" t="n">
-        <v>166.1156158447266</v>
+        <v>166.1156311035156</v>
       </c>
       <c r="C241" t="n">
         <v>166.8999938964844</v>
@@ -8393,7 +8393,7 @@
         <v>45406</v>
       </c>
       <c r="B242" t="n">
-        <v>168.2256774902344</v>
+        <v>168.2256622314453</v>
       </c>
       <c r="C242" t="n">
         <v>169.0200042724609</v>
@@ -8459,7 +8459,7 @@
         <v>45408</v>
       </c>
       <c r="B244" t="n">
-        <v>168.5043334960938</v>
+        <v>168.5043487548828</v>
       </c>
       <c r="C244" t="n">
         <v>169.3000030517578</v>
@@ -8492,7 +8492,7 @@
         <v>45411</v>
       </c>
       <c r="B245" t="n">
-        <v>172.6846008300781</v>
+        <v>172.6846160888672</v>
       </c>
       <c r="C245" t="n">
         <v>173.5</v>
@@ -8525,7 +8525,7 @@
         <v>45412</v>
       </c>
       <c r="B246" t="n">
-        <v>169.5294952392578</v>
+        <v>169.5295104980469</v>
       </c>
       <c r="C246" t="n">
         <v>170.3300018310547</v>
@@ -8558,7 +8558,7 @@
         <v>45413</v>
       </c>
       <c r="B247" t="n">
-        <v>168.5043334960938</v>
+        <v>168.5043487548828</v>
       </c>
       <c r="C247" t="n">
         <v>169.3000030517578</v>
@@ -8591,7 +8591,7 @@
         <v>45414</v>
       </c>
       <c r="B248" t="n">
-        <v>172.2168273925781</v>
+        <v>172.2168121337891</v>
       </c>
       <c r="C248" t="n">
         <v>173.0299987792969</v>
@@ -8624,7 +8624,7 @@
         <v>45415</v>
       </c>
       <c r="B249" t="n">
-        <v>182.5181884765625</v>
+        <v>182.5181732177734</v>
       </c>
       <c r="C249" t="n">
         <v>183.3800048828125</v>
@@ -8822,7 +8822,7 @@
         <v>45425</v>
       </c>
       <c r="B255" t="n">
-        <v>185.656005859375</v>
+        <v>185.6560211181641</v>
       </c>
       <c r="C255" t="n">
         <v>186.2799987792969</v>
@@ -8888,7 +8888,7 @@
         <v>45427</v>
       </c>
       <c r="B257" t="n">
-        <v>189.0845031738281</v>
+        <v>189.0845184326172</v>
       </c>
       <c r="C257" t="n">
         <v>189.7200012207031</v>
@@ -9317,7 +9317,7 @@
         <v>45447</v>
       </c>
       <c r="B270" t="n">
-        <v>193.6989898681641</v>
+        <v>193.6990051269531</v>
       </c>
       <c r="C270" t="n">
         <v>194.3500061035156</v>
@@ -9383,7 +9383,7 @@
         <v>45449</v>
       </c>
       <c r="B272" t="n">
-        <v>193.8285675048828</v>
+        <v>193.8285522460938</v>
       </c>
       <c r="C272" t="n">
         <v>194.4799957275391</v>
@@ -9449,7 +9449,7 @@
         <v>45453</v>
       </c>
       <c r="B274" t="n">
-        <v>192.4730987548828</v>
+        <v>192.4731140136719</v>
       </c>
       <c r="C274" t="n">
         <v>193.1199951171875</v>
@@ -9482,7 +9482,7 @@
         <v>45454</v>
       </c>
       <c r="B275" t="n">
-        <v>206.4561157226562</v>
+        <v>206.4561004638672</v>
       </c>
       <c r="C275" t="n">
         <v>207.1499938964844</v>
@@ -9515,7 +9515,7 @@
         <v>45455</v>
       </c>
       <c r="B276" t="n">
-        <v>212.3563079833984</v>
+        <v>212.3562927246094</v>
       </c>
       <c r="C276" t="n">
         <v>213.0700073242188</v>
@@ -9548,7 +9548,7 @@
         <v>45456</v>
       </c>
       <c r="B277" t="n">
-        <v>213.5223693847656</v>
+        <v>213.5223846435547</v>
       </c>
       <c r="C277" t="n">
         <v>214.2400054931641</v>
@@ -9581,7 +9581,7 @@
         <v>45457</v>
       </c>
       <c r="B278" t="n">
-        <v>211.7782287597656</v>
+        <v>211.7782440185547</v>
       </c>
       <c r="C278" t="n">
         <v>212.4900054931641</v>
@@ -9680,7 +9680,7 @@
         <v>45463</v>
       </c>
       <c r="B281" t="n">
-        <v>208.9776306152344</v>
+        <v>208.9776458740234</v>
       </c>
       <c r="C281" t="n">
         <v>209.6799926757812</v>
@@ -9746,7 +9746,7 @@
         <v>45467</v>
       </c>
       <c r="B283" t="n">
-        <v>207.4428100585938</v>
+        <v>207.4427947998047</v>
       </c>
       <c r="C283" t="n">
         <v>208.1399993896484</v>
@@ -9845,7 +9845,7 @@
         <v>45470</v>
       </c>
       <c r="B286" t="n">
-        <v>213.3828582763672</v>
+        <v>213.3828430175781</v>
       </c>
       <c r="C286" t="n">
         <v>214.1000061035156</v>
@@ -9977,7 +9977,7 @@
         <v>45476</v>
       </c>
       <c r="B290" t="n">
-        <v>220.8078918457031</v>
+        <v>220.8078765869141</v>
       </c>
       <c r="C290" t="n">
         <v>221.5500030517578</v>
@@ -10109,7 +10109,7 @@
         <v>45483</v>
       </c>
       <c r="B294" t="n">
-        <v>232.1996002197266</v>
+        <v>232.1995849609375</v>
       </c>
       <c r="C294" t="n">
         <v>232.9799957275391</v>
@@ -10307,7 +10307,7 @@
         <v>45491</v>
       </c>
       <c r="B300" t="n">
-        <v>223.4290771484375</v>
+        <v>223.4290618896484</v>
       </c>
       <c r="C300" t="n">
         <v>224.1799926757812</v>
@@ -10373,7 +10373,7 @@
         <v>45495</v>
       </c>
       <c r="B302" t="n">
-        <v>223.2098083496094</v>
+        <v>223.2098236083984</v>
       </c>
       <c r="C302" t="n">
         <v>223.9600067138672</v>
@@ -10505,7 +10505,7 @@
         <v>45499</v>
       </c>
       <c r="B306" t="n">
-        <v>217.2299041748047</v>
+        <v>217.2299194335938</v>
       </c>
       <c r="C306" t="n">
         <v>217.9600067138672</v>
@@ -10637,7 +10637,7 @@
         <v>45505</v>
       </c>
       <c r="B310" t="n">
-        <v>217.6285705566406</v>
+        <v>217.6285552978516</v>
       </c>
       <c r="C310" t="n">
         <v>218.3600006103516</v>
@@ -10703,7 +10703,7 @@
         <v>45509</v>
       </c>
       <c r="B312" t="n">
-        <v>208.5690155029297</v>
+        <v>208.5690307617188</v>
       </c>
       <c r="C312" t="n">
         <v>209.2700042724609</v>
@@ -10769,7 +10769,7 @@
         <v>45511</v>
       </c>
       <c r="B314" t="n">
-        <v>209.1171875</v>
+        <v>209.1171722412109</v>
       </c>
       <c r="C314" t="n">
         <v>209.8200073242188</v>
@@ -10802,7 +10802,7 @@
         <v>45512</v>
       </c>
       <c r="B315" t="n">
-        <v>212.5954742431641</v>
+        <v>212.5954895019531</v>
       </c>
       <c r="C315" t="n">
         <v>213.3099975585938</v>
